--- a/value.xlsx
+++ b/value.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="14400" windowHeight="7650"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="14400" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,748 +395,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="226">
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color theme="8"/>
@@ -1257,1267 +516,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2842,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2874,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C34" si="0">MID(A3,2,1)</f>
+        <f t="shared" ref="C3" si="0">MID(A3,2,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2883,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D35" si="1">MID(A4,10,3)</f>
+        <f t="shared" ref="D4" si="1">MID(A4,10,3)</f>
         <v>70</v>
       </c>
     </row>
@@ -2892,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C36" si="2">MID(A5,2,1)</f>
+        <f t="shared" ref="C5" si="2">MID(A5,2,1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2901,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D37" si="3">MID(A6,10,3)</f>
+        <f t="shared" ref="D6" si="3">MID(A6,10,3)</f>
         <v>69</v>
       </c>
     </row>
@@ -2910,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C38" si="4">MID(A7,2,1)</f>
+        <f t="shared" ref="C7" si="4">MID(A7,2,1)</f>
         <v>3</v>
       </c>
     </row>
@@ -2919,7 +917,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:D39" si="5">MID(A8,10,3)</f>
+        <f t="shared" ref="D8" si="5">MID(A8,10,3)</f>
         <v>54</v>
       </c>
     </row>
@@ -2928,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9:C40" si="6">MID(A9,2,1)</f>
+        <f t="shared" ref="C9" si="6">MID(A9,2,1)</f>
         <v>4</v>
       </c>
     </row>
@@ -2937,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D41" si="7">MID(A10,10,3)</f>
+        <f t="shared" ref="D10" si="7">MID(A10,10,3)</f>
         <v>86</v>
       </c>
     </row>
@@ -2946,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C42" si="8">MID(A11,2,1)</f>
+        <f t="shared" ref="C11" si="8">MID(A11,2,1)</f>
         <v>5</v>
       </c>
     </row>
@@ -2955,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12:D43" si="9">MID(A12,10,3)</f>
+        <f t="shared" ref="D12" si="9">MID(A12,10,3)</f>
         <v>75</v>
       </c>
     </row>
@@ -2964,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13:C44" si="10">MID(A13,2,1)</f>
+        <f t="shared" ref="C13" si="10">MID(A13,2,1)</f>
         <v>6</v>
       </c>
     </row>
@@ -2973,7 +971,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14:D45" si="11">MID(A14,10,3)</f>
+        <f t="shared" ref="D14" si="11">MID(A14,10,3)</f>
         <v>81</v>
       </c>
     </row>
@@ -2982,7 +980,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:C46" si="12">MID(A15,2,1)</f>
+        <f t="shared" ref="C15" si="12">MID(A15,2,1)</f>
         <v>7</v>
       </c>
     </row>
@@ -2991,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ref="D16:D47" si="13">MID(A16,10,3)</f>
+        <f t="shared" ref="D16" si="13">MID(A16,10,3)</f>
         <v>68</v>
       </c>
     </row>
@@ -3000,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:C48" si="14">MID(A17,2,1)</f>
+        <f t="shared" ref="C17" si="14">MID(A17,2,1)</f>
         <v>8</v>
       </c>
     </row>
@@ -3009,7 +1007,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ref="D18:D49" si="15">MID(A18,10,3)</f>
+        <f t="shared" ref="D18" si="15">MID(A18,10,3)</f>
         <v>86</v>
       </c>
     </row>
@@ -3018,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:C50" si="16">MID(A19,2,1)</f>
+        <f t="shared" ref="C19" si="16">MID(A19,2,1)</f>
         <v>9</v>
       </c>
     </row>
@@ -3027,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" ref="D20:D51" si="17">MID(A20,10,3)</f>
+        <f t="shared" ref="D20" si="17">MID(A20,10,3)</f>
         <v>82</v>
       </c>
     </row>
@@ -3036,7 +1034,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:C52" si="18">MID(A21,2,1)</f>
+        <f t="shared" ref="C21" si="18">MID(A21,2,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3045,13 +1043,13 @@
         <v>20</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D22:D53" si="19">MID(A22,10,3)</f>
+        <f t="shared" ref="D22" si="19">MID(A22,10,3)</f>
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" t="str">
-        <f t="shared" ref="C23:C54" si="20">MID(A23,2,1)</f>
+        <f t="shared" ref="C23" si="20">MID(A23,2,1)</f>
         <v/>
       </c>
     </row>
@@ -3060,7 +1058,7 @@
         <v>21</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24:D55" si="21">MID(A24,10,3)</f>
+        <f t="shared" ref="D24" si="21">MID(A24,10,3)</f>
         <v>===</v>
       </c>
     </row>
@@ -3069,7 +1067,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ref="C25:C56" si="22">MID(A25,2,1)</f>
+        <f t="shared" ref="C25" si="22">MID(A25,2,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3078,7 +1076,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ref="D26:D57" si="23">MID(A26,10,3)</f>
+        <f t="shared" ref="D26" si="23">MID(A26,10,3)</f>
         <v>93</v>
       </c>
     </row>
@@ -3087,7 +1085,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:C58" si="24">MID(A27,2,1)</f>
+        <f t="shared" ref="C27" si="24">MID(A27,2,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3096,7 +1094,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" ref="D28:D59" si="25">MID(A28,10,3)</f>
+        <f t="shared" ref="D28" si="25">MID(A28,10,3)</f>
         <v>123</v>
       </c>
     </row>
@@ -3105,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:C76" si="26">MID(A29,2,1)</f>
+        <f t="shared" ref="C29" si="26">MID(A29,2,1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3114,7 +1112,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" ref="D30:D76" si="27">MID(A30,10,3)</f>
+        <f t="shared" ref="D30" si="27">MID(A30,10,3)</f>
         <v>92</v>
       </c>
     </row>
@@ -3123,7 +1121,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31:C76" si="28">MID(A31,2,1)</f>
+        <f t="shared" ref="C31" si="28">MID(A31,2,1)</f>
         <v>3</v>
       </c>
     </row>
@@ -3132,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" ref="D32:D76" si="29">MID(A32,10,3)</f>
+        <f t="shared" ref="D32" si="29">MID(A32,10,3)</f>
         <v>86</v>
       </c>
     </row>
@@ -3141,7 +1139,7 @@
         <v>29</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33:C76" si="30">MID(A33,2,1)</f>
+        <f t="shared" ref="C33" si="30">MID(A33,2,1)</f>
         <v>4</v>
       </c>
     </row>
@@ -3150,7 +1148,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D76" si="31">MID(A34,10,3)</f>
+        <f t="shared" ref="D34" si="31">MID(A34,10,3)</f>
         <v>67</v>
       </c>
     </row>
@@ -3159,7 +1157,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:C76" si="32">MID(A35,2,1)</f>
+        <f t="shared" ref="C35" si="32">MID(A35,2,1)</f>
         <v>5</v>
       </c>
     </row>
@@ -3168,7 +1166,7 @@
         <v>32</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" ref="D36:D76" si="33">MID(A36,10,3)</f>
+        <f t="shared" ref="D36" si="33">MID(A36,10,3)</f>
         <v>103</v>
       </c>
     </row>
@@ -3177,7 +1175,7 @@
         <v>33</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:C76" si="34">MID(A37,2,1)</f>
+        <f t="shared" ref="C37" si="34">MID(A37,2,1)</f>
         <v>6</v>
       </c>
     </row>
@@ -3186,7 +1184,7 @@
         <v>34</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" ref="D38:D76" si="35">MID(A38,10,3)</f>
+        <f t="shared" ref="D38" si="35">MID(A38,10,3)</f>
         <v>106</v>
       </c>
     </row>
@@ -3195,7 +1193,7 @@
         <v>35</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:C76" si="36">MID(A39,2,1)</f>
+        <f t="shared" ref="C39" si="36">MID(A39,2,1)</f>
         <v>7</v>
       </c>
     </row>
@@ -3204,13 +1202,13 @@
         <v>36</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" ref="D40:D76" si="37">MID(A40,10,3)</f>
+        <f t="shared" ref="D40" si="37">MID(A40,10,3)</f>
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C41" t="str">
-        <f t="shared" ref="C41:C76" si="38">MID(A41,2,1)</f>
+        <f t="shared" ref="C41" si="38">MID(A41,2,1)</f>
         <v/>
       </c>
     </row>
@@ -3219,7 +1217,7 @@
         <v>21</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" ref="D42:D76" si="39">MID(A42,10,3)</f>
+        <f t="shared" ref="D42" si="39">MID(A42,10,3)</f>
         <v>===</v>
       </c>
     </row>
@@ -3228,7 +1226,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" ref="C43:C76" si="40">MID(A43,2,1)</f>
+        <f t="shared" ref="C43" si="40">MID(A43,2,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3237,7 +1235,7 @@
         <v>38</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" ref="D44:D76" si="41">MID(A44,10,3)</f>
+        <f t="shared" ref="D44" si="41">MID(A44,10,3)</f>
         <v>104</v>
       </c>
     </row>
@@ -3246,7 +1244,7 @@
         <v>39</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ref="C45:C76" si="42">MID(A45,2,1)</f>
+        <f t="shared" ref="C45" si="42">MID(A45,2,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3255,7 +1253,7 @@
         <v>40</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46:D76" si="43">MID(A46,10,3)</f>
+        <f t="shared" ref="D46" si="43">MID(A46,10,3)</f>
         <v>63</v>
       </c>
     </row>
@@ -3264,7 +1262,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:C76" si="44">MID(A47,2,1)</f>
+        <f t="shared" ref="C47" si="44">MID(A47,2,1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3273,7 +1271,7 @@
         <v>42</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" ref="D48:D76" si="45">MID(A48,10,3)</f>
+        <f t="shared" ref="D48" si="45">MID(A48,10,3)</f>
         <v>79</v>
       </c>
     </row>
@@ -3282,7 +1280,7 @@
         <v>43</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" ref="C49:C76" si="46">MID(A49,2,1)</f>
+        <f t="shared" ref="C49" si="46">MID(A49,2,1)</f>
         <v>3</v>
       </c>
     </row>
@@ -3291,7 +1289,7 @@
         <v>44</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" ref="D50:D76" si="47">MID(A50,10,3)</f>
+        <f t="shared" ref="D50" si="47">MID(A50,10,3)</f>
         <v>64</v>
       </c>
     </row>
@@ -3300,7 +1298,7 @@
         <v>45</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" ref="C51:C76" si="48">MID(A51,2,1)</f>
+        <f t="shared" ref="C51" si="48">MID(A51,2,1)</f>
         <v>4</v>
       </c>
     </row>
@@ -3309,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" ref="D52:D76" si="49">MID(A52,10,3)</f>
+        <f t="shared" ref="D52" si="49">MID(A52,10,3)</f>
         <v>82</v>
       </c>
     </row>
@@ -3318,7 +1316,7 @@
         <v>46</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" ref="C53:C76" si="50">MID(A53,2,1)</f>
+        <f t="shared" ref="C53" si="50">MID(A53,2,1)</f>
         <v>5</v>
       </c>
     </row>
@@ -3327,7 +1325,7 @@
         <v>47</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" ref="D54:D76" si="51">MID(A54,10,3)</f>
+        <f t="shared" ref="D54" si="51">MID(A54,10,3)</f>
         <v>97</v>
       </c>
     </row>
@@ -3336,7 +1334,7 @@
         <v>48</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" ref="C55:C76" si="52">MID(A55,2,1)</f>
+        <f t="shared" ref="C55" si="52">MID(A55,2,1)</f>
         <v>6</v>
       </c>
     </row>
@@ -3345,7 +1343,7 @@
         <v>49</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" ref="D56:D76" si="53">MID(A56,10,3)</f>
+        <f t="shared" ref="D56" si="53">MID(A56,10,3)</f>
         <v>91</v>
       </c>
     </row>
@@ -3354,7 +1352,7 @@
         <v>50</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ref="C57:C76" si="54">MID(A57,2,1)</f>
+        <f t="shared" ref="C57" si="54">MID(A57,2,1)</f>
         <v>7</v>
       </c>
     </row>
@@ -3363,13 +1361,13 @@
         <v>51</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" ref="D58:D76" si="55">MID(A58,10,3)</f>
+        <f t="shared" ref="D58" si="55">MID(A58,10,3)</f>
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C59" t="str">
-        <f t="shared" ref="C59:C76" si="56">MID(A59,2,1)</f>
+        <f t="shared" ref="C59" si="56">MID(A59,2,1)</f>
         <v/>
       </c>
     </row>
@@ -3378,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" ref="D60:D76" si="57">MID(A60,10,3)</f>
+        <f t="shared" ref="D60" si="57">MID(A60,10,3)</f>
         <v>===</v>
       </c>
     </row>
@@ -3387,7 +1385,7 @@
         <v>52</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" ref="C61:C76" si="58">MID(A61,2,1)</f>
+        <f t="shared" ref="C61" si="58">MID(A61,2,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3396,7 +1394,7 @@
         <v>53</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" ref="D62:D76" si="59">MID(A62,10,3)</f>
+        <f t="shared" ref="D62" si="59">MID(A62,10,3)</f>
         <v>55</v>
       </c>
     </row>
@@ -3405,7 +1403,7 @@
         <v>54</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" ref="C63:C76" si="60">MID(A63,2,1)</f>
+        <f t="shared" ref="C63" si="60">MID(A63,2,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3414,7 +1412,7 @@
         <v>44</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" ref="D64:D76" si="61">MID(A64,10,3)</f>
+        <f t="shared" ref="D64" si="61">MID(A64,10,3)</f>
         <v>64</v>
       </c>
     </row>
@@ -3423,7 +1421,7 @@
         <v>55</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" ref="C65:C76" si="62">MID(A65,2,1)</f>
+        <f t="shared" ref="C65" si="62">MID(A65,2,1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3432,7 +1430,7 @@
         <v>56</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D76" si="63">MID(A66,10,3)</f>
+        <f t="shared" ref="D66" si="63">MID(A66,10,3)</f>
         <v>87</v>
       </c>
     </row>
@@ -3441,7 +1439,7 @@
         <v>57</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C76" si="64">MID(A67,2,1)</f>
+        <f t="shared" ref="C67" si="64">MID(A67,2,1)</f>
         <v>3</v>
       </c>
     </row>
@@ -3450,7 +1448,7 @@
         <v>58</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" ref="D68:D76" si="65">MID(A68,10,3)</f>
+        <f t="shared" ref="D68" si="65">MID(A68,10,3)</f>
         <v>78</v>
       </c>
     </row>
@@ -3459,7 +1457,7 @@
         <v>59</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ref="C69:C76" si="66">MID(A69,2,1)</f>
+        <f t="shared" ref="C69" si="66">MID(A69,2,1)</f>
         <v>4</v>
       </c>
     </row>
@@ -3468,7 +1466,7 @@
         <v>58</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" ref="D70:D76" si="67">MID(A70,10,3)</f>
+        <f t="shared" ref="D70" si="67">MID(A70,10,3)</f>
         <v>78</v>
       </c>
     </row>
@@ -3477,7 +1475,7 @@
         <v>60</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ref="C71:C76" si="68">MID(A71,2,1)</f>
+        <f t="shared" ref="C71" si="68">MID(A71,2,1)</f>
         <v>5</v>
       </c>
     </row>
@@ -3486,7 +1484,7 @@
         <v>61</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" ref="D72:D76" si="69">MID(A72,10,3)</f>
+        <f t="shared" ref="D72" si="69">MID(A72,10,3)</f>
         <v>85</v>
       </c>
     </row>
@@ -3495,7 +1493,7 @@
         <v>62</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ref="C73:C76" si="70">MID(A73,2,1)</f>
+        <f t="shared" ref="C73" si="70">MID(A73,2,1)</f>
         <v>6</v>
       </c>
     </row>
@@ -3504,7 +1502,7 @@
         <v>49</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" ref="D74:D76" si="71">MID(A74,10,3)</f>
+        <f t="shared" ref="D74" si="71">MID(A74,10,3)</f>
         <v>91</v>
       </c>
     </row>
@@ -3513,7 +1511,7 @@
         <v>63</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ref="C75:C76" si="72">MID(A75,2,1)</f>
+        <f t="shared" ref="C75" si="72">MID(A75,2,1)</f>
         <v>7</v>
       </c>
     </row>
@@ -3528,11 +1526,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="225" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="between">
       <formula>50</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="between">
       <formula>50</formula>
       <formula>100</formula>
     </cfRule>
@@ -3609,31 +1607,31 @@
         <v>1.1129032258064515</v>
       </c>
       <c r="H2">
-        <f>$B$5/$B2</f>
+        <f t="shared" ref="H2:H12" si="0">$B$5/$B2</f>
         <v>0.87096774193548387</v>
       </c>
       <c r="I2">
-        <f>$B$6/$B2</f>
+        <f t="shared" ref="I2:I12" si="1">$B$6/$B2</f>
         <v>1.3870967741935485</v>
       </c>
       <c r="J2">
-        <f>$B$7/$B2</f>
+        <f t="shared" ref="J2:J12" si="2">$B$7/$B2</f>
         <v>1.2096774193548387</v>
       </c>
       <c r="K2">
-        <f>$B$8/$B2</f>
+        <f t="shared" ref="K2:K12" si="3">$B$8/$B2</f>
         <v>1.3064516129032258</v>
       </c>
       <c r="L2">
-        <f>$B$9/$B2</f>
+        <f t="shared" ref="L2:L12" si="4">$B$9/$B2</f>
         <v>1.096774193548387</v>
       </c>
       <c r="M2">
-        <f>$B$10/$B2</f>
+        <f t="shared" ref="M2:M12" si="5">$B$10/$B2</f>
         <v>1.3870967741935485</v>
       </c>
       <c r="N2">
-        <f>$B$11/$B2</f>
+        <f t="shared" ref="N2:N12" si="6">$B$11/$B2</f>
         <v>1.3225806451612903</v>
       </c>
       <c r="O2">
@@ -3652,47 +1650,47 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f>$B$2/B3</f>
+        <f t="shared" ref="E3:E12" si="7">$B$2/B3</f>
         <v>0.88571428571428568</v>
       </c>
       <c r="F3">
-        <f>$B$3/B3</f>
+        <f t="shared" ref="F3:F12" si="8">$B$3/B3</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f>$B$4/B3</f>
+        <f t="shared" ref="G3:G12" si="9">$B$4/B3</f>
         <v>0.98571428571428577</v>
       </c>
       <c r="H3">
-        <f>$B$5/$B3</f>
+        <f t="shared" si="0"/>
         <v>0.77142857142857146</v>
       </c>
       <c r="I3">
-        <f>$B$6/$B3</f>
+        <f t="shared" si="1"/>
         <v>1.2285714285714286</v>
       </c>
       <c r="J3">
-        <f>$B$7/$B3</f>
+        <f t="shared" si="2"/>
         <v>1.0714285714285714</v>
       </c>
       <c r="K3">
-        <f>$B$8/$B3</f>
+        <f t="shared" si="3"/>
         <v>1.1571428571428573</v>
       </c>
       <c r="L3">
-        <f>$B$9/$B3</f>
+        <f t="shared" si="4"/>
         <v>0.97142857142857142</v>
       </c>
       <c r="M3">
-        <f>$B$10/$B3</f>
+        <f t="shared" si="5"/>
         <v>1.2285714285714286</v>
       </c>
       <c r="N3">
-        <f>$B$11/$B3</f>
+        <f t="shared" si="6"/>
         <v>1.1714285714285715</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O12" si="0">$B$12/$B3</f>
+        <f t="shared" ref="O3:O12" si="10">$B$12/$B3</f>
         <v>0.82857142857142863</v>
       </c>
     </row>
@@ -3707,47 +1705,47 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>$B$2/B4</f>
+        <f t="shared" si="7"/>
         <v>0.89855072463768115</v>
       </c>
       <c r="F4">
-        <f>$B$3/B4</f>
+        <f t="shared" si="8"/>
         <v>1.0144927536231885</v>
       </c>
       <c r="G4">
-        <f>$B$4/B4</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H4">
-        <f>$B$5/$B4</f>
+        <f t="shared" si="0"/>
         <v>0.78260869565217395</v>
       </c>
       <c r="I4">
-        <f>$B$6/$B4</f>
+        <f t="shared" si="1"/>
         <v>1.2463768115942029</v>
       </c>
       <c r="J4">
-        <f>$B$7/$B4</f>
+        <f t="shared" si="2"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="K4">
-        <f>$B$8/$B4</f>
+        <f t="shared" si="3"/>
         <v>1.173913043478261</v>
       </c>
       <c r="L4">
-        <f>$B$9/$B4</f>
+        <f t="shared" si="4"/>
         <v>0.98550724637681164</v>
       </c>
       <c r="M4">
-        <f>$B$10/$B4</f>
+        <f t="shared" si="5"/>
         <v>1.2463768115942029</v>
       </c>
       <c r="N4">
-        <f>$B$11/$B4</f>
+        <f t="shared" si="6"/>
         <v>1.1884057971014492</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.84057971014492749</v>
       </c>
     </row>
@@ -3762,47 +1760,47 @@
         <v>0.25</v>
       </c>
       <c r="E5">
-        <f>$B$2/B5</f>
+        <f t="shared" si="7"/>
         <v>1.1481481481481481</v>
       </c>
       <c r="F5">
-        <f>$B$3/B5</f>
+        <f t="shared" si="8"/>
         <v>1.2962962962962963</v>
       </c>
       <c r="G5">
-        <f>$B$4/B5</f>
+        <f t="shared" si="9"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="H5">
-        <f>$B$5/$B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I5">
-        <f>$B$6/$B5</f>
+        <f t="shared" si="1"/>
         <v>1.5925925925925926</v>
       </c>
       <c r="J5">
-        <f>$B$7/$B5</f>
+        <f t="shared" si="2"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="K5">
-        <f>$B$8/$B5</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="L5">
-        <f>$B$9/$B5</f>
+        <f t="shared" si="4"/>
         <v>1.2592592592592593</v>
       </c>
       <c r="M5">
-        <f>$B$10/$B5</f>
+        <f t="shared" si="5"/>
         <v>1.5925925925925926</v>
       </c>
       <c r="N5">
-        <f>$B$11/$B5</f>
+        <f t="shared" si="6"/>
         <v>1.5185185185185186</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>1.0740740740740742</v>
       </c>
     </row>
@@ -3817,47 +1815,47 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <f>$B$2/B6</f>
+        <f t="shared" si="7"/>
         <v>0.72093023255813948</v>
       </c>
       <c r="F6">
-        <f>$B$3/B6</f>
+        <f t="shared" si="8"/>
         <v>0.81395348837209303</v>
       </c>
       <c r="G6">
-        <f>$B$4/B6</f>
+        <f t="shared" si="9"/>
         <v>0.80232558139534882</v>
       </c>
       <c r="H6">
-        <f>$B$5/$B6</f>
+        <f t="shared" si="0"/>
         <v>0.62790697674418605</v>
       </c>
       <c r="I6">
-        <f>$B$6/$B6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J6">
-        <f>$B$7/$B6</f>
+        <f t="shared" si="2"/>
         <v>0.87209302325581395</v>
       </c>
       <c r="K6">
-        <f>$B$8/$B6</f>
+        <f t="shared" si="3"/>
         <v>0.94186046511627908</v>
       </c>
       <c r="L6">
-        <f>$B$9/$B6</f>
+        <f t="shared" si="4"/>
         <v>0.79069767441860461</v>
       </c>
       <c r="M6">
-        <f>$B$10/$B6</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N6">
-        <f>$B$11/$B6</f>
+        <f t="shared" si="6"/>
         <v>0.95348837209302328</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.67441860465116277</v>
       </c>
     </row>
@@ -3872,47 +1870,47 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <f>$B$2/B7</f>
+        <f t="shared" si="7"/>
         <v>0.82666666666666666</v>
       </c>
       <c r="F7">
-        <f>$B$3/B7</f>
+        <f t="shared" si="8"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="G7">
-        <f>$B$4/B7</f>
+        <f t="shared" si="9"/>
         <v>0.92</v>
       </c>
       <c r="H7">
-        <f>$B$5/$B7</f>
+        <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
       <c r="I7">
-        <f>$B$6/$B7</f>
+        <f t="shared" si="1"/>
         <v>1.1466666666666667</v>
       </c>
       <c r="J7">
-        <f>$B$7/$B7</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K7">
-        <f>$B$8/$B7</f>
+        <f t="shared" si="3"/>
         <v>1.08</v>
       </c>
       <c r="L7">
-        <f>$B$9/$B7</f>
+        <f t="shared" si="4"/>
         <v>0.90666666666666662</v>
       </c>
       <c r="M7">
-        <f>$B$10/$B7</f>
+        <f t="shared" si="5"/>
         <v>1.1466666666666667</v>
       </c>
       <c r="N7">
-        <f>$B$11/$B7</f>
+        <f t="shared" si="6"/>
         <v>1.0933333333333333</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.77333333333333332</v>
       </c>
     </row>
@@ -3927,47 +1925,47 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <f>$B$2/B8</f>
+        <f t="shared" si="7"/>
         <v>0.76543209876543206</v>
       </c>
       <c r="F8">
-        <f>$B$3/B8</f>
+        <f t="shared" si="8"/>
         <v>0.86419753086419748</v>
       </c>
       <c r="G8">
-        <f>$B$4/B8</f>
+        <f t="shared" si="9"/>
         <v>0.85185185185185186</v>
       </c>
       <c r="H8">
-        <f>$B$5/$B8</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I8">
-        <f>$B$6/$B8</f>
+        <f t="shared" si="1"/>
         <v>1.0617283950617284</v>
       </c>
       <c r="J8">
-        <f>$B$7/$B8</f>
+        <f t="shared" si="2"/>
         <v>0.92592592592592593</v>
       </c>
       <c r="K8">
-        <f>$B$8/$B8</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L8">
-        <f>$B$9/$B8</f>
+        <f t="shared" si="4"/>
         <v>0.83950617283950613</v>
       </c>
       <c r="M8">
-        <f>$B$10/$B8</f>
+        <f t="shared" si="5"/>
         <v>1.0617283950617284</v>
       </c>
       <c r="N8">
-        <f>$B$11/$B8</f>
+        <f t="shared" si="6"/>
         <v>1.0123456790123457</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.71604938271604934</v>
       </c>
     </row>
@@ -3982,47 +1980,47 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>$B$2/B9</f>
+        <f t="shared" si="7"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="F9">
-        <f>$B$3/B9</f>
+        <f t="shared" si="8"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="G9">
-        <f>$B$4/B9</f>
+        <f t="shared" si="9"/>
         <v>1.0147058823529411</v>
       </c>
       <c r="H9">
-        <f>$B$5/$B9</f>
+        <f t="shared" si="0"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="I9">
-        <f>$B$6/$B9</f>
+        <f t="shared" si="1"/>
         <v>1.2647058823529411</v>
       </c>
       <c r="J9">
-        <f>$B$7/$B9</f>
+        <f t="shared" si="2"/>
         <v>1.1029411764705883</v>
       </c>
       <c r="K9">
-        <f>$B$8/$B9</f>
+        <f t="shared" si="3"/>
         <v>1.1911764705882353</v>
       </c>
       <c r="L9">
-        <f>$B$9/$B9</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M9">
-        <f>$B$10/$B9</f>
+        <f t="shared" si="5"/>
         <v>1.2647058823529411</v>
       </c>
       <c r="N9">
-        <f>$B$11/$B9</f>
+        <f t="shared" si="6"/>
         <v>1.2058823529411764</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.8529411764705882</v>
       </c>
     </row>
@@ -4037,47 +2035,47 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>$B$2/B10</f>
+        <f t="shared" si="7"/>
         <v>0.72093023255813948</v>
       </c>
       <c r="F10">
-        <f>$B$3/B10</f>
+        <f t="shared" si="8"/>
         <v>0.81395348837209303</v>
       </c>
       <c r="G10">
-        <f>$B$4/B10</f>
+        <f t="shared" si="9"/>
         <v>0.80232558139534882</v>
       </c>
       <c r="H10">
-        <f>$B$5/$B10</f>
+        <f t="shared" si="0"/>
         <v>0.62790697674418605</v>
       </c>
       <c r="I10">
-        <f>$B$6/$B10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10">
-        <f>$B$7/$B10</f>
+        <f t="shared" si="2"/>
         <v>0.87209302325581395</v>
       </c>
       <c r="K10">
-        <f>$B$8/$B10</f>
+        <f t="shared" si="3"/>
         <v>0.94186046511627908</v>
       </c>
       <c r="L10">
-        <f>$B$9/$B10</f>
+        <f t="shared" si="4"/>
         <v>0.79069767441860461</v>
       </c>
       <c r="M10">
-        <f>$B$10/$B10</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N10">
-        <f>$B$11/$B10</f>
+        <f t="shared" si="6"/>
         <v>0.95348837209302328</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.67441860465116277</v>
       </c>
     </row>
@@ -4092,47 +2090,47 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f>$B$2/B11</f>
+        <f t="shared" si="7"/>
         <v>0.75609756097560976</v>
       </c>
       <c r="F11">
-        <f>$B$3/B11</f>
+        <f t="shared" si="8"/>
         <v>0.85365853658536583</v>
       </c>
       <c r="G11">
-        <f>$B$4/B11</f>
+        <f t="shared" si="9"/>
         <v>0.84146341463414631</v>
       </c>
       <c r="H11">
-        <f>$B$5/$B11</f>
+        <f t="shared" si="0"/>
         <v>0.65853658536585369</v>
       </c>
       <c r="I11">
-        <f>$B$6/$B11</f>
+        <f t="shared" si="1"/>
         <v>1.0487804878048781</v>
       </c>
       <c r="J11">
-        <f>$B$7/$B11</f>
+        <f t="shared" si="2"/>
         <v>0.91463414634146345</v>
       </c>
       <c r="K11">
-        <f>$B$8/$B11</f>
+        <f t="shared" si="3"/>
         <v>0.98780487804878048</v>
       </c>
       <c r="L11">
-        <f>$B$9/$B11</f>
+        <f t="shared" si="4"/>
         <v>0.82926829268292679</v>
       </c>
       <c r="M11">
-        <f>$B$10/$B11</f>
+        <f t="shared" si="5"/>
         <v>1.0487804878048781</v>
       </c>
       <c r="N11">
-        <f>$B$11/$B11</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.70731707317073167</v>
       </c>
     </row>
@@ -4147,47 +2145,47 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <f>$B$2/B12</f>
+        <f t="shared" si="7"/>
         <v>1.0689655172413792</v>
       </c>
       <c r="F12">
-        <f>$B$3/B12</f>
+        <f t="shared" si="8"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="G12">
-        <f>$B$4/B12</f>
+        <f t="shared" si="9"/>
         <v>1.1896551724137931</v>
       </c>
       <c r="H12">
-        <f>$B$5/$B12</f>
+        <f t="shared" si="0"/>
         <v>0.93103448275862066</v>
       </c>
       <c r="I12">
-        <f>$B$6/$B12</f>
+        <f t="shared" si="1"/>
         <v>1.4827586206896552</v>
       </c>
       <c r="J12">
-        <f>$B$7/$B12</f>
+        <f t="shared" si="2"/>
         <v>1.2931034482758621</v>
       </c>
       <c r="K12">
-        <f>$B$8/$B12</f>
+        <f t="shared" si="3"/>
         <v>1.396551724137931</v>
       </c>
       <c r="L12">
-        <f>$B$9/$B12</f>
+        <f t="shared" si="4"/>
         <v>1.1724137931034482</v>
       </c>
       <c r="M12">
-        <f>$B$10/$B12</f>
+        <f t="shared" si="5"/>
         <v>1.4827586206896552</v>
       </c>
       <c r="N12">
-        <f>$B$11/$B12</f>
+        <f t="shared" si="6"/>
         <v>1.4137931034482758</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -4214,35 +2212,35 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f>$B$14/$B14</f>
+        <f t="shared" ref="E14:E21" si="11">$B$14/$B14</f>
         <v>1</v>
       </c>
       <c r="F14">
-        <f>$B$15/$B14</f>
+        <f t="shared" ref="F14:F21" si="12">$B$15/$B14</f>
         <v>1.3225806451612903</v>
       </c>
       <c r="G14">
-        <f>$B$16/$B14</f>
+        <f t="shared" ref="G14:G21" si="13">$B$16/$B14</f>
         <v>0.989247311827957</v>
       </c>
       <c r="H14">
-        <f>$B$17/$B14</f>
+        <f t="shared" ref="H14:H21" si="14">$B$17/$B14</f>
         <v>0.92473118279569888</v>
       </c>
       <c r="I14">
-        <f>$B$18/$B14</f>
+        <f t="shared" ref="I14:I21" si="15">$B$18/$B14</f>
         <v>0.72043010752688175</v>
       </c>
       <c r="J14">
-        <f>$B$19/$B14</f>
+        <f t="shared" ref="J14:J21" si="16">$B$19/$B14</f>
         <v>1.10752688172043</v>
       </c>
       <c r="K14">
-        <f>$B$20/$B14</f>
+        <f t="shared" ref="K14:K21" si="17">$B$20/$B14</f>
         <v>1.1397849462365592</v>
       </c>
       <c r="L14">
-        <f>$B$21/$B14</f>
+        <f t="shared" ref="L14:L21" si="18">$B$21/$B14</f>
         <v>1.1827956989247312</v>
       </c>
     </row>
@@ -4260,35 +2258,35 @@
         <v>99</v>
       </c>
       <c r="E15">
-        <f>$B$14/$B15</f>
+        <f t="shared" si="11"/>
         <v>0.75609756097560976</v>
       </c>
       <c r="F15">
-        <f>$B$15/$B15</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G15">
-        <f>$B$16/$B15</f>
+        <f t="shared" si="13"/>
         <v>0.74796747967479671</v>
       </c>
       <c r="H15">
-        <f>$B$17/$B15</f>
+        <f t="shared" si="14"/>
         <v>0.69918699186991873</v>
       </c>
       <c r="I15">
-        <f>$B$18/$B15</f>
+        <f t="shared" si="15"/>
         <v>0.54471544715447151</v>
       </c>
       <c r="J15">
-        <f>$B$19/$B15</f>
+        <f t="shared" si="16"/>
         <v>0.83739837398373984</v>
       </c>
       <c r="K15">
-        <f>$B$20/$B15</f>
+        <f t="shared" si="17"/>
         <v>0.86178861788617889</v>
       </c>
       <c r="L15">
-        <f>$B$21/$B15</f>
+        <f t="shared" si="18"/>
         <v>0.89430894308943087</v>
       </c>
     </row>
@@ -4303,35 +2301,35 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <f>$B$14/$B16</f>
+        <f t="shared" si="11"/>
         <v>1.0108695652173914</v>
       </c>
       <c r="F16">
-        <f>$B$15/$B16</f>
+        <f t="shared" si="12"/>
         <v>1.3369565217391304</v>
       </c>
       <c r="G16">
-        <f>$B$16/$B16</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H16">
-        <f>$B$17/$B16</f>
+        <f t="shared" si="14"/>
         <v>0.93478260869565222</v>
       </c>
       <c r="I16">
-        <f>$B$18/$B16</f>
+        <f t="shared" si="15"/>
         <v>0.72826086956521741</v>
       </c>
       <c r="J16">
-        <f>$B$19/$B16</f>
+        <f t="shared" si="16"/>
         <v>1.1195652173913044</v>
       </c>
       <c r="K16">
-        <f>$B$20/$B16</f>
+        <f t="shared" si="17"/>
         <v>1.1521739130434783</v>
       </c>
       <c r="L16">
-        <f>$B$21/$B16</f>
+        <f t="shared" si="18"/>
         <v>1.1956521739130435</v>
       </c>
     </row>
@@ -4346,35 +2344,35 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>$B$14/$B17</f>
+        <f t="shared" si="11"/>
         <v>1.0813953488372092</v>
       </c>
       <c r="F17">
-        <f>$B$15/$B17</f>
+        <f t="shared" si="12"/>
         <v>1.430232558139535</v>
       </c>
       <c r="G17">
-        <f>$B$16/$B17</f>
+        <f t="shared" si="13"/>
         <v>1.069767441860465</v>
       </c>
       <c r="H17">
-        <f>$B$17/$B17</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I17">
-        <f>$B$18/$B17</f>
+        <f t="shared" si="15"/>
         <v>0.77906976744186052</v>
       </c>
       <c r="J17">
-        <f>$B$19/$B17</f>
+        <f t="shared" si="16"/>
         <v>1.1976744186046511</v>
       </c>
       <c r="K17">
-        <f>$B$20/$B17</f>
+        <f t="shared" si="17"/>
         <v>1.2325581395348837</v>
       </c>
       <c r="L17">
-        <f>$B$21/$B17</f>
+        <f t="shared" si="18"/>
         <v>1.2790697674418605</v>
       </c>
     </row>
@@ -4389,35 +2387,35 @@
         <v>0.5</v>
       </c>
       <c r="E18">
-        <f>$B$14/$B18</f>
+        <f t="shared" si="11"/>
         <v>1.3880597014925373</v>
       </c>
       <c r="F18">
-        <f>$B$15/$B18</f>
+        <f t="shared" si="12"/>
         <v>1.835820895522388</v>
       </c>
       <c r="G18">
-        <f>$B$16/$B18</f>
+        <f t="shared" si="13"/>
         <v>1.3731343283582089</v>
       </c>
       <c r="H18">
-        <f>$B$17/$B18</f>
+        <f t="shared" si="14"/>
         <v>1.2835820895522387</v>
       </c>
       <c r="I18">
-        <f>$B$18/$B18</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J18">
-        <f>$B$19/$B18</f>
+        <f t="shared" si="16"/>
         <v>1.5373134328358209</v>
       </c>
       <c r="K18">
-        <f>$B$20/$B18</f>
+        <f t="shared" si="17"/>
         <v>1.5820895522388059</v>
       </c>
       <c r="L18">
-        <f>$B$21/$B18</f>
+        <f t="shared" si="18"/>
         <v>1.6417910447761195</v>
       </c>
     </row>
@@ -4432,35 +2430,35 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <f>$B$14/$B19</f>
+        <f t="shared" si="11"/>
         <v>0.90291262135922334</v>
       </c>
       <c r="F19">
-        <f>$B$15/$B19</f>
+        <f t="shared" si="12"/>
         <v>1.1941747572815533</v>
       </c>
       <c r="G19">
-        <f>$B$16/$B19</f>
+        <f t="shared" si="13"/>
         <v>0.89320388349514568</v>
       </c>
       <c r="H19">
-        <f>$B$17/$B19</f>
+        <f t="shared" si="14"/>
         <v>0.83495145631067957</v>
       </c>
       <c r="I19">
-        <f>$B$18/$B19</f>
+        <f t="shared" si="15"/>
         <v>0.65048543689320393</v>
       </c>
       <c r="J19">
-        <f>$B$19/$B19</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K19">
-        <f>$B$20/$B19</f>
+        <f t="shared" si="17"/>
         <v>1.029126213592233</v>
       </c>
       <c r="L19">
-        <f>$B$21/$B19</f>
+        <f t="shared" si="18"/>
         <v>1.0679611650485437</v>
       </c>
     </row>
@@ -4475,35 +2473,35 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <f>$B$14/$B20</f>
+        <f t="shared" si="11"/>
         <v>0.87735849056603776</v>
       </c>
       <c r="F20">
-        <f>$B$15/$B20</f>
+        <f t="shared" si="12"/>
         <v>1.1603773584905661</v>
       </c>
       <c r="G20">
-        <f>$B$16/$B20</f>
+        <f t="shared" si="13"/>
         <v>0.86792452830188682</v>
       </c>
       <c r="H20">
-        <f>$B$17/$B20</f>
+        <f t="shared" si="14"/>
         <v>0.81132075471698117</v>
       </c>
       <c r="I20">
-        <f>$B$18/$B20</f>
+        <f t="shared" si="15"/>
         <v>0.63207547169811318</v>
       </c>
       <c r="J20">
-        <f>$B$19/$B20</f>
+        <f t="shared" si="16"/>
         <v>0.97169811320754718</v>
       </c>
       <c r="K20">
-        <f>$B$20/$B20</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L20">
-        <f>$B$21/$B20</f>
+        <f t="shared" si="18"/>
         <v>1.0377358490566038</v>
       </c>
     </row>
@@ -4518,35 +2516,35 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <f>$B$14/$B21</f>
+        <f t="shared" si="11"/>
         <v>0.84545454545454546</v>
       </c>
       <c r="F21">
-        <f>$B$15/$B21</f>
+        <f t="shared" si="12"/>
         <v>1.1181818181818182</v>
       </c>
       <c r="G21">
-        <f>$B$16/$B21</f>
+        <f t="shared" si="13"/>
         <v>0.83636363636363631</v>
       </c>
       <c r="H21">
-        <f>$B$17/$B21</f>
+        <f t="shared" si="14"/>
         <v>0.78181818181818186</v>
       </c>
       <c r="I21">
-        <f>$B$18/$B21</f>
+        <f t="shared" si="15"/>
         <v>0.60909090909090913</v>
       </c>
       <c r="J21">
-        <f>$B$19/$B21</f>
+        <f t="shared" si="16"/>
         <v>0.9363636363636364</v>
       </c>
       <c r="K21">
-        <f>$B$20/$B21</f>
+        <f t="shared" si="17"/>
         <v>0.96363636363636362</v>
       </c>
       <c r="L21">
-        <f>$B$21/$B21</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -4616,35 +2614,35 @@
         <v>0.5</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E30" si="1">$B$23/$B24</f>
+        <f t="shared" ref="E24:E30" si="19">$B$23/$B24</f>
         <v>1.6507936507936507</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F30" si="2">$B$24/$B24</f>
+        <f t="shared" ref="F24:F30" si="20">$B$24/$B24</f>
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:G30" si="3">$B$25/$B24</f>
+        <f t="shared" ref="G24:G30" si="21">$B$25/$B24</f>
         <v>1.253968253968254</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:H30" si="4">$B$26/$B24</f>
+        <f t="shared" ref="H24:H30" si="22">$B$26/$B24</f>
         <v>1.0158730158730158</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I30" si="5">$B$27/$B24</f>
+        <f t="shared" ref="I24:I30" si="23">$B$27/$B24</f>
         <v>1.3015873015873016</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:J30" si="6">$B$28/$B24</f>
+        <f t="shared" ref="J24:J30" si="24">$B$28/$B24</f>
         <v>1.5396825396825398</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:K30" si="7">$B$29/$B24</f>
+        <f t="shared" ref="K24:K30" si="25">$B$29/$B24</f>
         <v>1.4444444444444444</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L30" si="8">$B$30/$B24</f>
+        <f t="shared" ref="L24:L30" si="26">$B$30/$B24</f>
         <v>1.5873015873015872</v>
       </c>
     </row>
@@ -4659,35 +2657,35 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.3164556962025316</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.79746835443037978</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.810126582278481</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1.0379746835443038</v>
       </c>
       <c r="J25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1.2278481012658229</v>
       </c>
       <c r="K25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>1.1518987341772151</v>
       </c>
       <c r="L25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.2658227848101267</v>
       </c>
     </row>
@@ -4702,35 +2700,35 @@
         <v>0.5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.625</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.984375</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>1.234375</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1.28125</v>
       </c>
       <c r="J26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1.515625</v>
       </c>
       <c r="K26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>1.421875</v>
       </c>
       <c r="L26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.5625</v>
       </c>
     </row>
@@ -4745,35 +2743,35 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.2682926829268293</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.76829268292682928</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.96341463414634143</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.78048780487804881</v>
       </c>
       <c r="I27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1.1829268292682926</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>1.1097560975609757</v>
       </c>
       <c r="L27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.2195121951219512</v>
       </c>
     </row>
@@ -4788,35 +2786,35 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.0721649484536082</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.64948453608247425</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.81443298969072164</v>
       </c>
       <c r="H28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.65979381443298968</v>
       </c>
       <c r="I28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.84536082474226804</v>
       </c>
       <c r="J28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="K28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>0.93814432989690721</v>
       </c>
       <c r="L28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.0309278350515463</v>
       </c>
     </row>
@@ -4831,35 +2829,35 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.86813186813186816</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.70329670329670335</v>
       </c>
       <c r="I29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.90109890109890112</v>
       </c>
       <c r="J29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1.0659340659340659</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="L29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.098901098901099</v>
       </c>
     </row>
@@ -4874,35 +2872,35 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.04</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.63</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.79</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.64</v>
       </c>
       <c r="I30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.82</v>
       </c>
       <c r="J30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0.97</v>
       </c>
       <c r="K30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>0.91</v>
       </c>
       <c r="L30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -4972,35 +2970,35 @@
         <v>0.5</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E39" si="9">$B$32/$B33</f>
+        <f t="shared" ref="E33:E39" si="27">$B$32/$B33</f>
         <v>0.859375</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F39" si="10">$B$33/$B33</f>
+        <f t="shared" ref="F33:F39" si="28">$B$33/$B33</f>
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G39" si="11">$B$34/$B33</f>
+        <f t="shared" ref="G33:G39" si="29">$B$34/$B33</f>
         <v>1.359375</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H39" si="12">$B$35/$B33</f>
+        <f t="shared" ref="H33:H39" si="30">$B$35/$B33</f>
         <v>1.21875</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:I39" si="13">$B$36/$B33</f>
+        <f t="shared" ref="I33:I39" si="31">$B$36/$B33</f>
         <v>1.21875</v>
       </c>
       <c r="J33">
-        <f t="shared" ref="J33:J39" si="14">$B$37/$B33</f>
+        <f t="shared" ref="J33:J39" si="32">$B$37/$B33</f>
         <v>1.328125</v>
       </c>
       <c r="K33">
-        <f t="shared" ref="K33:K39" si="15">$B$38/$B33</f>
+        <f t="shared" ref="K33:K39" si="33">$B$38/$B33</f>
         <v>1.421875</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33:L39" si="16">$B$39/$B33</f>
+        <f t="shared" ref="L33:L39" si="34">$B$39/$B33</f>
         <v>1.359375</v>
       </c>
     </row>
@@ -5015,35 +3013,35 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.63218390804597702</v>
       </c>
       <c r="F34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.73563218390804597</v>
       </c>
       <c r="G34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="I34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="J34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.97701149425287359</v>
       </c>
       <c r="K34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1.0459770114942528</v>
       </c>
       <c r="L34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -5058,35 +3056,35 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.70512820512820518</v>
       </c>
       <c r="F35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.82051282051282048</v>
       </c>
       <c r="G35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>1.1153846153846154</v>
       </c>
       <c r="H35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>1.0897435897435896</v>
       </c>
       <c r="K35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="L35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1.1153846153846154</v>
       </c>
     </row>
@@ -5101,35 +3099,35 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.70512820512820518</v>
       </c>
       <c r="F36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.82051282051282048</v>
       </c>
       <c r="G36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>1.1153846153846154</v>
       </c>
       <c r="H36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>1.0897435897435896</v>
       </c>
       <c r="K36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="L36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1.1153846153846154</v>
       </c>
     </row>
@@ -5144,35 +3142,35 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="F37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.75294117647058822</v>
       </c>
       <c r="G37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>1.0235294117647058</v>
       </c>
       <c r="H37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>0.91764705882352937</v>
       </c>
       <c r="I37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.91764705882352937</v>
       </c>
       <c r="J37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="K37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1.0705882352941176</v>
       </c>
       <c r="L37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1.0235294117647058</v>
       </c>
     </row>
@@ -5187,35 +3185,35 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.60439560439560436</v>
       </c>
       <c r="F38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.70329670329670335</v>
       </c>
       <c r="G38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>0.95604395604395609</v>
       </c>
       <c r="H38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="I38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="J38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.93406593406593408</v>
       </c>
       <c r="K38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="L38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0.95604395604395609</v>
       </c>
     </row>
@@ -5230,35 +3228,35 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.63218390804597702</v>
       </c>
       <c r="F39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.73563218390804597</v>
       </c>
       <c r="G39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="I39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="J39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.97701149425287359</v>
       </c>
       <c r="K39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1.0459770114942528</v>
       </c>
       <c r="L39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -5278,8 +3276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5360,31 +3358,31 @@
         <v>1.1129032258064515</v>
       </c>
       <c r="G2">
-        <f>$B$5/$B2</f>
+        <f t="shared" ref="G2:G12" si="0">$B$5/$B2</f>
         <v>0.87096774193548387</v>
       </c>
       <c r="H2">
-        <f>$B$6/$B2</f>
+        <f t="shared" ref="H2:H12" si="1">$B$6/$B2</f>
         <v>1.3870967741935485</v>
       </c>
       <c r="I2">
-        <f>$B$7/$B2</f>
+        <f t="shared" ref="I2:I12" si="2">$B$7/$B2</f>
         <v>1.2096774193548387</v>
       </c>
       <c r="J2">
-        <f>$B$8/$B2</f>
+        <f t="shared" ref="J2:J12" si="3">$B$8/$B2</f>
         <v>1.3064516129032258</v>
       </c>
       <c r="K2">
-        <f>$B$9/$B2</f>
+        <f t="shared" ref="K2:K12" si="4">$B$9/$B2</f>
         <v>1.096774193548387</v>
       </c>
       <c r="L2">
-        <f>$B$10/$B2</f>
+        <f t="shared" ref="L2:L12" si="5">$B$10/$B2</f>
         <v>1.3870967741935485</v>
       </c>
       <c r="M2">
-        <f>$B$11/$B2</f>
+        <f t="shared" ref="M2:M12" si="6">$B$11/$B2</f>
         <v>1.3225806451612903</v>
       </c>
       <c r="N2">
@@ -5409,47 +3407,47 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>$B$2/B3</f>
+        <f t="shared" ref="D3:D12" si="7">$B$2/B3</f>
         <v>0.88571428571428568</v>
       </c>
       <c r="E3">
-        <f>$B$3/B3</f>
+        <f t="shared" ref="E3:E12" si="8">$B$3/B3</f>
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <f>$B$4/B3</f>
+        <f t="shared" ref="F3:F12" si="9">$B$4/B3</f>
         <v>0.98571428571428577</v>
       </c>
       <c r="G3">
-        <f>$B$5/$B3</f>
+        <f t="shared" si="0"/>
         <v>0.77142857142857146</v>
       </c>
       <c r="H3">
-        <f>$B$6/$B3</f>
+        <f t="shared" si="1"/>
         <v>1.2285714285714286</v>
       </c>
       <c r="I3">
-        <f>$B$7/$B3</f>
+        <f t="shared" si="2"/>
         <v>1.0714285714285714</v>
       </c>
       <c r="J3">
-        <f>$B$8/$B3</f>
+        <f t="shared" si="3"/>
         <v>1.1571428571428573</v>
       </c>
       <c r="K3" s="1">
-        <f>$B$9/$B3</f>
+        <f t="shared" si="4"/>
         <v>0.97142857142857142</v>
       </c>
       <c r="L3">
-        <f>$B$10/$B3</f>
+        <f t="shared" si="5"/>
         <v>1.2285714285714286</v>
       </c>
       <c r="M3">
-        <f>$B$11/$B3</f>
+        <f t="shared" si="6"/>
         <v>1.1714285714285715</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N12" si="0">$B$12/$B3</f>
+        <f t="shared" ref="N3:N12" si="10">$B$12/$B3</f>
         <v>0.82857142857142863</v>
       </c>
       <c r="S3">
@@ -5470,47 +3468,47 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f>$B$2/B4</f>
+        <f t="shared" si="7"/>
         <v>0.89855072463768115</v>
       </c>
       <c r="E4" s="1">
-        <f>$B$3/B4</f>
+        <f t="shared" si="8"/>
         <v>1.0144927536231885</v>
       </c>
       <c r="F4">
-        <f>$B$4/B4</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G4">
-        <f>$B$5/$B4</f>
+        <f t="shared" si="0"/>
         <v>0.78260869565217395</v>
       </c>
       <c r="H4">
-        <f>$B$6/$B4</f>
+        <f t="shared" si="1"/>
         <v>1.2463768115942029</v>
       </c>
       <c r="I4">
-        <f>$B$7/$B4</f>
+        <f t="shared" si="2"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="J4">
-        <f>$B$8/$B4</f>
+        <f t="shared" si="3"/>
         <v>1.173913043478261</v>
       </c>
       <c r="K4">
-        <f>$B$9/$B4</f>
+        <f t="shared" si="4"/>
         <v>0.98550724637681164</v>
       </c>
       <c r="L4">
-        <f>$B$10/$B4</f>
+        <f t="shared" si="5"/>
         <v>1.2463768115942029</v>
       </c>
       <c r="M4">
-        <f>$B$11/$B4</f>
+        <f t="shared" si="6"/>
         <v>1.1884057971014492</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.84057971014492749</v>
       </c>
       <c r="U4">
@@ -5528,47 +3526,47 @@
         <v>0.25</v>
       </c>
       <c r="D5">
-        <f>$B$2/B5</f>
+        <f t="shared" si="7"/>
         <v>1.1481481481481481</v>
       </c>
       <c r="E5">
-        <f>$B$3/B5</f>
+        <f t="shared" si="8"/>
         <v>1.2962962962962963</v>
       </c>
       <c r="F5">
-        <f>$B$4/B5</f>
+        <f t="shared" si="9"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="G5">
-        <f>$B$5/$B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5">
-        <f>$B$6/$B5</f>
+        <f t="shared" si="1"/>
         <v>1.5925925925925926</v>
       </c>
       <c r="I5">
-        <f>$B$7/$B5</f>
+        <f t="shared" si="2"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="J5">
-        <f>$B$8/$B5</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K5">
-        <f>$B$9/$B5</f>
+        <f t="shared" si="4"/>
         <v>1.2592592592592593</v>
       </c>
       <c r="L5">
-        <f>$B$10/$B5</f>
+        <f t="shared" si="5"/>
         <v>1.5925925925925926</v>
       </c>
       <c r="M5">
-        <f>$B$11/$B5</f>
+        <f t="shared" si="6"/>
         <v>1.5185185185185186</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>1.0740740740740742</v>
       </c>
       <c r="U5">
@@ -5586,47 +3584,47 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <f>$B$2/B6</f>
+        <f t="shared" si="7"/>
         <v>0.72093023255813948</v>
       </c>
       <c r="E6">
-        <f>$B$3/B6</f>
+        <f t="shared" si="8"/>
         <v>0.81395348837209303</v>
       </c>
       <c r="F6">
-        <f>$B$4/B6</f>
+        <f t="shared" si="9"/>
         <v>0.80232558139534882</v>
       </c>
       <c r="G6">
-        <f>$B$5/$B6</f>
+        <f t="shared" si="0"/>
         <v>0.62790697674418605</v>
       </c>
       <c r="H6">
-        <f>$B$6/$B6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I6">
-        <f>$B$7/$B6</f>
+        <f t="shared" si="2"/>
         <v>0.87209302325581395</v>
       </c>
       <c r="J6">
-        <f>$B$8/$B6</f>
+        <f t="shared" si="3"/>
         <v>0.94186046511627908</v>
       </c>
       <c r="K6">
-        <f>$B$9/$B6</f>
+        <f t="shared" si="4"/>
         <v>0.79069767441860461</v>
       </c>
       <c r="L6">
-        <f>$B$10/$B6</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <f>$B$11/$B6</f>
+        <f t="shared" si="6"/>
         <v>0.95348837209302328</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.67441860465116277</v>
       </c>
     </row>
@@ -5641,47 +3639,47 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f>$B$2/B7</f>
+        <f t="shared" si="7"/>
         <v>0.82666666666666666</v>
       </c>
       <c r="E7">
-        <f>$B$3/B7</f>
+        <f t="shared" si="8"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="F7">
-        <f>$B$4/B7</f>
+        <f t="shared" si="9"/>
         <v>0.92</v>
       </c>
       <c r="G7">
-        <f>$B$5/$B7</f>
+        <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
       <c r="H7">
-        <f>$B$6/$B7</f>
+        <f t="shared" si="1"/>
         <v>1.1466666666666667</v>
       </c>
       <c r="I7">
-        <f>$B$7/$B7</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J7">
-        <f>$B$8/$B7</f>
+        <f t="shared" si="3"/>
         <v>1.08</v>
       </c>
       <c r="K7">
-        <f>$B$9/$B7</f>
+        <f t="shared" si="4"/>
         <v>0.90666666666666662</v>
       </c>
       <c r="L7">
-        <f>$B$10/$B7</f>
+        <f t="shared" si="5"/>
         <v>1.1466666666666667</v>
       </c>
       <c r="M7">
-        <f>$B$11/$B7</f>
+        <f t="shared" si="6"/>
         <v>1.0933333333333333</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.77333333333333332</v>
       </c>
     </row>
@@ -5696,47 +3694,47 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <f>$B$2/B8</f>
+        <f t="shared" si="7"/>
         <v>0.76543209876543206</v>
       </c>
       <c r="E8">
-        <f>$B$3/B8</f>
+        <f t="shared" si="8"/>
         <v>0.86419753086419748</v>
       </c>
       <c r="F8">
-        <f>$B$4/B8</f>
+        <f t="shared" si="9"/>
         <v>0.85185185185185186</v>
       </c>
       <c r="G8">
-        <f>$B$5/$B8</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H8">
-        <f>$B$6/$B8</f>
+        <f t="shared" si="1"/>
         <v>1.0617283950617284</v>
       </c>
       <c r="I8">
-        <f>$B$7/$B8</f>
+        <f t="shared" si="2"/>
         <v>0.92592592592592593</v>
       </c>
       <c r="J8">
-        <f>$B$8/$B8</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K8">
-        <f>$B$9/$B8</f>
+        <f t="shared" si="4"/>
         <v>0.83950617283950613</v>
       </c>
       <c r="L8" s="1">
-        <f>$B$10/$B8</f>
+        <f t="shared" si="5"/>
         <v>1.0617283950617284</v>
       </c>
       <c r="M8">
-        <f>$B$11/$B8</f>
+        <f t="shared" si="6"/>
         <v>1.0123456790123457</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.71604938271604934</v>
       </c>
     </row>
@@ -5751,47 +3749,47 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <f>$B$2/B9</f>
+        <f t="shared" si="7"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="E9">
-        <f>$B$3/B9</f>
+        <f t="shared" si="8"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="F9">
-        <f>$B$4/B9</f>
+        <f t="shared" si="9"/>
         <v>1.0147058823529411</v>
       </c>
       <c r="G9">
-        <f>$B$5/$B9</f>
+        <f t="shared" si="0"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="H9">
-        <f>$B$6/$B9</f>
+        <f t="shared" si="1"/>
         <v>1.2647058823529411</v>
       </c>
       <c r="I9">
-        <f>$B$7/$B9</f>
+        <f t="shared" si="2"/>
         <v>1.1029411764705883</v>
       </c>
       <c r="J9">
-        <f>$B$8/$B9</f>
+        <f t="shared" si="3"/>
         <v>1.1911764705882353</v>
       </c>
       <c r="K9">
-        <f>$B$9/$B9</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L9">
-        <f>$B$10/$B9</f>
+        <f t="shared" si="5"/>
         <v>1.2647058823529411</v>
       </c>
       <c r="M9">
-        <f>$B$11/$B9</f>
+        <f t="shared" si="6"/>
         <v>1.2058823529411764</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.8529411764705882</v>
       </c>
     </row>
@@ -5806,47 +3804,47 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <f>$B$2/B10</f>
+        <f t="shared" si="7"/>
         <v>0.72093023255813948</v>
       </c>
       <c r="E10">
-        <f>$B$3/B10</f>
+        <f t="shared" si="8"/>
         <v>0.81395348837209303</v>
       </c>
       <c r="F10">
-        <f>$B$4/B10</f>
+        <f t="shared" si="9"/>
         <v>0.80232558139534882</v>
       </c>
       <c r="G10">
-        <f>$B$5/$B10</f>
+        <f t="shared" si="0"/>
         <v>0.62790697674418605</v>
       </c>
       <c r="H10">
-        <f>$B$6/$B10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10">
-        <f>$B$7/$B10</f>
+        <f t="shared" si="2"/>
         <v>0.87209302325581395</v>
       </c>
       <c r="J10" s="1">
-        <f>$B$8/$B10</f>
+        <f t="shared" si="3"/>
         <v>0.94186046511627908</v>
       </c>
       <c r="K10">
-        <f>$B$9/$B10</f>
+        <f t="shared" si="4"/>
         <v>0.79069767441860461</v>
       </c>
       <c r="L10">
-        <f>$B$10/$B10</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M10" s="1">
-        <f>$B$11/$B10</f>
+        <f t="shared" si="6"/>
         <v>0.95348837209302328</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.67441860465116277</v>
       </c>
     </row>
@@ -5861,47 +3859,47 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <f>$B$2/B11</f>
+        <f t="shared" si="7"/>
         <v>0.75609756097560976</v>
       </c>
       <c r="E11">
-        <f>$B$3/B11</f>
+        <f t="shared" si="8"/>
         <v>0.85365853658536583</v>
       </c>
       <c r="F11">
-        <f>$B$4/B11</f>
+        <f t="shared" si="9"/>
         <v>0.84146341463414631</v>
       </c>
       <c r="G11">
-        <f>$B$5/$B11</f>
+        <f t="shared" si="0"/>
         <v>0.65853658536585369</v>
       </c>
       <c r="H11" s="1">
-        <f>$B$6/$B11</f>
+        <f t="shared" si="1"/>
         <v>1.0487804878048781</v>
       </c>
       <c r="I11">
-        <f>$B$7/$B11</f>
+        <f t="shared" si="2"/>
         <v>0.91463414634146345</v>
       </c>
       <c r="J11">
-        <f>$B$8/$B11</f>
+        <f t="shared" si="3"/>
         <v>0.98780487804878048</v>
       </c>
       <c r="K11">
-        <f>$B$9/$B11</f>
+        <f t="shared" si="4"/>
         <v>0.82926829268292679</v>
       </c>
       <c r="L11" s="1">
-        <f>$B$10/$B11</f>
+        <f t="shared" si="5"/>
         <v>1.0487804878048781</v>
       </c>
       <c r="M11">
-        <f>$B$11/$B11</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.70731707317073167</v>
       </c>
     </row>
@@ -5916,47 +3914,47 @@
         <v>0.5</v>
       </c>
       <c r="D12">
-        <f>$B$2/B12</f>
+        <f t="shared" si="7"/>
         <v>1.0689655172413792</v>
       </c>
       <c r="E12">
-        <f>$B$3/B12</f>
+        <f t="shared" si="8"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="F12">
-        <f>$B$4/B12</f>
+        <f t="shared" si="9"/>
         <v>1.1896551724137931</v>
       </c>
       <c r="G12">
-        <f>$B$5/$B12</f>
+        <f t="shared" si="0"/>
         <v>0.93103448275862066</v>
       </c>
       <c r="H12">
-        <f>$B$6/$B12</f>
+        <f t="shared" si="1"/>
         <v>1.4827586206896552</v>
       </c>
       <c r="I12">
-        <f>$B$7/$B12</f>
+        <f t="shared" si="2"/>
         <v>1.2931034482758621</v>
       </c>
       <c r="J12">
-        <f>$B$8/$B12</f>
+        <f t="shared" si="3"/>
         <v>1.396551724137931</v>
       </c>
       <c r="K12">
-        <f>$B$9/$B12</f>
+        <f t="shared" si="4"/>
         <v>1.1724137931034482</v>
       </c>
       <c r="L12">
-        <f>$B$10/$B12</f>
+        <f t="shared" si="5"/>
         <v>1.4827586206896552</v>
       </c>
       <c r="M12">
-        <f>$B$11/$B12</f>
+        <f t="shared" si="6"/>
         <v>1.4137931034482758</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6009,35 +4007,35 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f>$B$15/$B15</f>
+        <f t="shared" ref="D15:D22" si="11">$B$15/$B15</f>
         <v>1</v>
       </c>
       <c r="E15">
-        <f>$B$16/$B15</f>
+        <f t="shared" ref="E15:E22" si="12">$B$16/$B15</f>
         <v>1.3225806451612903</v>
       </c>
       <c r="F15">
-        <f>$B$17/$B15</f>
+        <f t="shared" ref="F15:F22" si="13">$B$17/$B15</f>
         <v>0.989247311827957</v>
       </c>
       <c r="G15">
-        <f>$B$18/$B15</f>
+        <f t="shared" ref="G15:G22" si="14">$B$18/$B15</f>
         <v>0.92473118279569888</v>
       </c>
       <c r="H15">
-        <f>$B$19/$B15</f>
+        <f t="shared" ref="H15:H22" si="15">$B$19/$B15</f>
         <v>0.72043010752688175</v>
       </c>
       <c r="I15">
-        <f>$B$20/$B15</f>
+        <f t="shared" ref="I15:I22" si="16">$B$20/$B15</f>
         <v>1.10752688172043</v>
       </c>
       <c r="J15">
-        <f>$B$21/$B15</f>
+        <f t="shared" ref="J15:J22" si="17">$B$21/$B15</f>
         <v>1.1397849462365592</v>
       </c>
       <c r="K15">
-        <f>$B$22/$B15</f>
+        <f t="shared" ref="K15:K22" si="18">$B$22/$B15</f>
         <v>1.1827956989247312</v>
       </c>
     </row>
@@ -6052,35 +4050,35 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f>$B$15/$B16</f>
+        <f t="shared" si="11"/>
         <v>0.75609756097560976</v>
       </c>
       <c r="E16">
-        <f>$B$16/$B16</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f>$B$17/$B16</f>
+        <f t="shared" si="13"/>
         <v>0.74796747967479671</v>
       </c>
       <c r="G16">
-        <f>$B$18/$B16</f>
+        <f t="shared" si="14"/>
         <v>0.69918699186991873</v>
       </c>
       <c r="H16">
-        <f>$B$19/$B16</f>
+        <f t="shared" si="15"/>
         <v>0.54471544715447151</v>
       </c>
       <c r="I16">
-        <f>$B$20/$B16</f>
+        <f t="shared" si="16"/>
         <v>0.83739837398373984</v>
       </c>
       <c r="J16">
-        <f>$B$21/$B16</f>
+        <f t="shared" si="17"/>
         <v>0.86178861788617889</v>
       </c>
       <c r="K16">
-        <f>$B$22/$B16</f>
+        <f t="shared" si="18"/>
         <v>0.89430894308943087</v>
       </c>
     </row>
@@ -6095,35 +4093,35 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <f>$B$15/$B17</f>
+        <f t="shared" si="11"/>
         <v>1.0108695652173914</v>
       </c>
       <c r="E17">
-        <f>$B$16/$B17</f>
+        <f t="shared" si="12"/>
         <v>1.3369565217391304</v>
       </c>
       <c r="F17">
-        <f>$B$17/$B17</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f>$B$18/$B17</f>
+        <f t="shared" si="14"/>
         <v>0.93478260869565222</v>
       </c>
       <c r="H17">
-        <f>$B$19/$B17</f>
+        <f t="shared" si="15"/>
         <v>0.72826086956521741</v>
       </c>
       <c r="I17">
-        <f>$B$20/$B17</f>
+        <f t="shared" si="16"/>
         <v>1.1195652173913044</v>
       </c>
       <c r="J17">
-        <f>$B$21/$B17</f>
+        <f t="shared" si="17"/>
         <v>1.1521739130434783</v>
       </c>
       <c r="K17">
-        <f>$B$22/$B17</f>
+        <f t="shared" si="18"/>
         <v>1.1956521739130435</v>
       </c>
     </row>
@@ -6138,35 +4136,35 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <f>$B$15/$B18</f>
+        <f t="shared" si="11"/>
         <v>1.0813953488372092</v>
       </c>
       <c r="E18">
-        <f>$B$16/$B18</f>
+        <f t="shared" si="12"/>
         <v>1.430232558139535</v>
       </c>
       <c r="F18" s="1">
-        <f>$B$17/$B18</f>
+        <f t="shared" si="13"/>
         <v>1.069767441860465</v>
       </c>
       <c r="G18">
-        <f>$B$18/$B18</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H18">
-        <f>$B$19/$B18</f>
+        <f t="shared" si="15"/>
         <v>0.77906976744186052</v>
       </c>
       <c r="I18">
-        <f>$B$20/$B18</f>
+        <f t="shared" si="16"/>
         <v>1.1976744186046511</v>
       </c>
       <c r="J18">
-        <f>$B$21/$B18</f>
+        <f t="shared" si="17"/>
         <v>1.2325581395348837</v>
       </c>
       <c r="K18">
-        <f>$B$22/$B18</f>
+        <f t="shared" si="18"/>
         <v>1.2790697674418605</v>
       </c>
     </row>
@@ -6181,35 +4179,35 @@
         <v>0.5</v>
       </c>
       <c r="D19">
-        <f>$B$15/$B19</f>
+        <f t="shared" si="11"/>
         <v>1.3880597014925373</v>
       </c>
       <c r="E19">
-        <f>$B$16/$B19</f>
+        <f t="shared" si="12"/>
         <v>1.835820895522388</v>
       </c>
       <c r="F19">
-        <f>$B$17/$B19</f>
+        <f t="shared" si="13"/>
         <v>1.3731343283582089</v>
       </c>
       <c r="G19">
-        <f>$B$18/$B19</f>
+        <f t="shared" si="14"/>
         <v>1.2835820895522387</v>
       </c>
       <c r="H19">
-        <f>$B$19/$B19</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I19">
-        <f>$B$20/$B19</f>
+        <f t="shared" si="16"/>
         <v>1.5373134328358209</v>
       </c>
       <c r="J19">
-        <f>$B$21/$B19</f>
+        <f t="shared" si="17"/>
         <v>1.5820895522388059</v>
       </c>
       <c r="K19">
-        <f>$B$22/$B19</f>
+        <f t="shared" si="18"/>
         <v>1.6417910447761195</v>
       </c>
     </row>
@@ -6224,35 +4222,35 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <f>$B$15/$B20</f>
+        <f t="shared" si="11"/>
         <v>0.90291262135922334</v>
       </c>
       <c r="E20">
-        <f>$B$16/$B20</f>
+        <f t="shared" si="12"/>
         <v>1.1941747572815533</v>
       </c>
       <c r="F20">
-        <f>$B$17/$B20</f>
+        <f t="shared" si="13"/>
         <v>0.89320388349514568</v>
       </c>
       <c r="G20">
-        <f>$B$18/$B20</f>
+        <f t="shared" si="14"/>
         <v>0.83495145631067957</v>
       </c>
       <c r="H20">
-        <f>$B$19/$B20</f>
+        <f t="shared" si="15"/>
         <v>0.65048543689320393</v>
       </c>
       <c r="I20">
-        <f>$B$20/$B20</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J20">
-        <f>$B$21/$B20</f>
+        <f t="shared" si="17"/>
         <v>1.029126213592233</v>
       </c>
       <c r="K20" s="1">
-        <f>$B$22/$B20</f>
+        <f t="shared" si="18"/>
         <v>1.0679611650485437</v>
       </c>
     </row>
@@ -6267,35 +4265,35 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <f>$B$15/$B21</f>
+        <f t="shared" si="11"/>
         <v>0.87735849056603776</v>
       </c>
       <c r="E21">
-        <f>$B$16/$B21</f>
+        <f t="shared" si="12"/>
         <v>1.1603773584905661</v>
       </c>
       <c r="F21">
-        <f>$B$17/$B21</f>
+        <f t="shared" si="13"/>
         <v>0.86792452830188682</v>
       </c>
       <c r="G21">
-        <f>$B$18/$B21</f>
+        <f t="shared" si="14"/>
         <v>0.81132075471698117</v>
       </c>
       <c r="H21">
-        <f>$B$19/$B21</f>
+        <f t="shared" si="15"/>
         <v>0.63207547169811318</v>
       </c>
       <c r="I21">
-        <f>$B$20/$B21</f>
+        <f t="shared" si="16"/>
         <v>0.97169811320754718</v>
       </c>
       <c r="J21">
-        <f>$B$21/$B21</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K21" s="1">
-        <f>$B$22/$B21</f>
+        <f t="shared" si="18"/>
         <v>1.0377358490566038</v>
       </c>
     </row>
@@ -6310,35 +4308,35 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <f>$B$15/$B22</f>
+        <f t="shared" si="11"/>
         <v>0.84545454545454546</v>
       </c>
       <c r="E22">
-        <f>$B$16/$B22</f>
+        <f t="shared" si="12"/>
         <v>1.1181818181818182</v>
       </c>
       <c r="F22">
-        <f>$B$17/$B22</f>
+        <f t="shared" si="13"/>
         <v>0.83636363636363631</v>
       </c>
       <c r="G22">
-        <f>$B$18/$B22</f>
+        <f t="shared" si="14"/>
         <v>0.78181818181818186</v>
       </c>
       <c r="H22">
-        <f>$B$19/$B22</f>
+        <f t="shared" si="15"/>
         <v>0.60909090909090913</v>
       </c>
       <c r="I22" s="1">
-        <f>$B$20/$B22</f>
+        <f t="shared" si="16"/>
         <v>0.9363636363636364</v>
       </c>
       <c r="J22" s="1">
-        <f>$B$21/$B22</f>
+        <f t="shared" si="17"/>
         <v>0.96363636363636362</v>
       </c>
       <c r="K22">
-        <f>$B$22/$B22</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -6434,35 +4432,35 @@
         <v>0.5</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D32" si="1">$B$25/$B26</f>
+        <f t="shared" ref="D26:D32" si="19">$B$25/$B26</f>
         <v>1.6507936507936507</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:E32" si="2">$B$26/$B26</f>
+        <f t="shared" ref="E26:E32" si="20">$B$26/$B26</f>
         <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F32" si="3">$B$27/$B26</f>
+        <f t="shared" ref="F26:F32" si="21">$B$27/$B26</f>
         <v>1.253968253968254</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G32" si="4">$B$28/$B26</f>
+        <f t="shared" ref="G26:G32" si="22">$B$28/$B26</f>
         <v>1.0158730158730158</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H32" si="5">$B$29/$B26</f>
+        <f t="shared" ref="H26:H32" si="23">$B$29/$B26</f>
         <v>1.3015873015873016</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:I32" si="6">$B$30/$B26</f>
+        <f t="shared" ref="I26:I32" si="24">$B$30/$B26</f>
         <v>1.5396825396825398</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26:J32" si="7">$B$31/$B26</f>
+        <f t="shared" ref="J26:J32" si="25">$B$31/$B26</f>
         <v>1.4444444444444444</v>
       </c>
       <c r="K26">
-        <f t="shared" ref="K26:K32" si="8">$B$32/$B26</f>
+        <f t="shared" ref="K26:K32" si="26">$B$32/$B26</f>
         <v>1.5873015873015872</v>
       </c>
     </row>
@@ -6477,35 +4475,35 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.3164556962025316</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.79746835443037978</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.810126582278481</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1.0379746835443038</v>
       </c>
       <c r="I27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1.2278481012658229</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>1.1518987341772151</v>
       </c>
       <c r="K27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.2658227848101267</v>
       </c>
     </row>
@@ -6520,35 +4518,35 @@
         <v>0.5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.625</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.984375</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>1.234375</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1.28125</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1.515625</v>
       </c>
       <c r="J28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>1.421875</v>
       </c>
       <c r="K28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.5625</v>
       </c>
     </row>
@@ -6563,35 +4561,35 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.2682926829268293</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.76829268292682928</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.96341463414634143</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.78048780487804881</v>
       </c>
       <c r="H29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1.1829268292682926</v>
       </c>
       <c r="J29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>1.1097560975609757</v>
       </c>
       <c r="K29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.2195121951219512</v>
       </c>
     </row>
@@ -6606,35 +4604,35 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.0721649484536082</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.64948453608247425</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.81443298969072164</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.65979381443298968</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.84536082474226804</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="J30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>0.93814432989690721</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.0309278350515463</v>
       </c>
     </row>
@@ -6649,35 +4647,35 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.86813186813186816</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.70329670329670335</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.90109890109890112</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1.0659340659340659</v>
       </c>
       <c r="J31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1.098901098901099</v>
       </c>
     </row>
@@ -6692,35 +4690,35 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>1.04</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.63</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.79</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0.64</v>
       </c>
       <c r="H32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.82</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0.97</v>
       </c>
       <c r="J32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>0.91</v>
       </c>
       <c r="K32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -6816,35 +4814,35 @@
         <v>0.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D42" si="9">$B$35/$B36</f>
+        <f t="shared" ref="D36:D42" si="27">$B$35/$B36</f>
         <v>0.859375</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E42" si="10">$B$36/$B36</f>
+        <f t="shared" ref="E36:E42" si="28">$B$36/$B36</f>
         <v>1</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F42" si="11">$B$37/$B36</f>
+        <f t="shared" ref="F36:F42" si="29">$B$37/$B36</f>
         <v>1.359375</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G42" si="12">$B$38/$B36</f>
+        <f t="shared" ref="G36:G42" si="30">$B$38/$B36</f>
         <v>1.21875</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H42" si="13">$B$39/$B36</f>
+        <f t="shared" ref="H36:H42" si="31">$B$39/$B36</f>
         <v>1.21875</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I42" si="14">$B$40/$B36</f>
+        <f t="shared" ref="I36:I42" si="32">$B$40/$B36</f>
         <v>1.328125</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J42" si="15">$B$41/$B36</f>
+        <f t="shared" ref="J36:J42" si="33">$B$41/$B36</f>
         <v>1.421875</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36:K42" si="16">$B$42/$B36</f>
+        <f t="shared" ref="K36:K42" si="34">$B$42/$B36</f>
         <v>1.359375</v>
       </c>
     </row>
@@ -6859,35 +4857,35 @@
         <v>10</v>
       </c>
       <c r="D37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.63218390804597702</v>
       </c>
       <c r="E37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.73563218390804597</v>
       </c>
       <c r="F37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="H37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.97701149425287359</v>
       </c>
       <c r="J37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1.0459770114942528</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -6902,35 +4900,35 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.70512820512820518</v>
       </c>
       <c r="E38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.82051282051282048</v>
       </c>
       <c r="F38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>1.1153846153846154</v>
       </c>
       <c r="G38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>1.0897435897435896</v>
       </c>
       <c r="J38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="K38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1.1153846153846154</v>
       </c>
     </row>
@@ -6945,35 +4943,35 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.70512820512820518</v>
       </c>
       <c r="E39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.82051282051282048</v>
       </c>
       <c r="F39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>1.1153846153846154</v>
       </c>
       <c r="G39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="H39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>1.0897435897435896</v>
       </c>
       <c r="J39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="K39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1.1153846153846154</v>
       </c>
     </row>
@@ -6988,35 +4986,35 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="E40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.75294117647058822</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>1.0235294117647058</v>
       </c>
       <c r="G40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>0.91764705882352937</v>
       </c>
       <c r="H40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.91764705882352937</v>
       </c>
       <c r="I40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1.0705882352941176</v>
       </c>
       <c r="K40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1.0235294117647058</v>
       </c>
     </row>
@@ -7031,35 +5029,35 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.60439560439560436</v>
       </c>
       <c r="E41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.70329670329670335</v>
       </c>
       <c r="F41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>0.95604395604395609</v>
       </c>
       <c r="G41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="H41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.93406593406593408</v>
       </c>
       <c r="J41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0.95604395604395609</v>
       </c>
     </row>
@@ -7074,35 +5072,35 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>0.63218390804597702</v>
       </c>
       <c r="E42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>0.73563218390804597</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="H42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="I42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.97701149425287359</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>1.0459770114942528</v>
       </c>
       <c r="K42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -7162,41 +5160,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="92" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="41" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:N2 P1:U1 A19:N19 A17:F17 H17:N17 A5:N5 A3:E3 G3:J3 L3:N3 A4:D4 F4:N4 A10:I10 A9:D9 F9:N9 A12:N16 A11:G11 I11:K11 K10:L10 A8:K8 M8:N8 M11:N11 A7:N7 A6:L6 N6 N10 A18:E18 G18:N18 A23:N29 A22:H22 K22:N22 A20:J21 L20:N21 A33:N36 A32:H32 J32:N32 A31:N31 A30:J30 L30:N30 A41:H41 A40:E40 G40:I40 A43:N43 A42:E42 G42:I42 A38:N39 A37:H37 J37 L37:N37 K40:N40 J41 K42:N42 L41:N41">
-    <cfRule type="cellIs" dxfId="91" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="40" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="36" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="87" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5">
-    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD2 A5:XFD5 A3:E3 V3:XFD3 A19:XFD19 A17:F17 H17:XFD17 G3:J3 L3:T3 A4:D4 F4:XFD4 A10:I10 A9:D9 F9:XFD9 A12:XFD16 A11:G11 I11:K11 K10:L10 A8:K8 M8:XFD8 M11:XFD11 A7:XFD7 A6:L6 N6:XFD6 N10:XFD10 A18:E18 G18:XFD18 A23:XFD29 A22:H22 K22:XFD22 A20:J21 L20:XFD21 A33:XFD36 A32:H32 J32:XFD32 A31:XFD31 A30:J30 L30:XFD30 A41:H41 A40:E40 G40:I40 A43:XFD1048576 A42:E42 G42:I42 A38:XFD39 A37:H37 J37 L37:XFD37 K40:XFD40 J41 K42:XFD42 L41:XFD41">
-    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:N2 A19:N19 A17:F17 H17:N17 A5:N5 A3:E3 G3:J3 L3:N3 A4:D4 F4:N4 A10:I10 A9:D9 F9:N9 A12:N16 A11:G11 I11:K11 K10:L10 A8:K8 M8:N8 M11:N11 A7:N7 A6:L6 N6 N10 A18:E18 G18:N18 A23:N29 A22:H22 K22:N22 A20:J21 L20:N21 A33:N36 A32:H32 J32:N32 A31:N31 A30:J30 L30:N30 A41:H41 A40:E40 G40:I40 A43:N43 A42:E42 G42:I42 A38:N39 A37:H37 J37 L37:N37 K40:N40 J41 K42:N42 L41:N41">
-    <cfRule type="cellIs" dxfId="84" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
       <formula>0.93332</formula>
       <formula>1.071429</formula>
     </cfRule>
@@ -7214,26 +5212,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0.93332</formula>
       <formula>1.071429</formula>
     </cfRule>
